--- a/DataOne.xlsx
+++ b/DataOne.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{06FDEE99-5D5A-458A-A213-91F63AEBA16E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{02EFDA51-149A-4F39-BCB8-068B11D5BF7E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>email address</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>ncitester2@nih.gov</t>
+  </si>
+  <si>
+    <t>ncitester@nih.gov</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,22 +392,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{6381C3D1-F9AD-40CC-A320-9262BB8026DF}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{747F399F-1A0C-43D1-B25D-0B77C195EC44}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{6381C3D1-F9AD-40CC-A320-9262BB8026DF}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{747F399F-1A0C-43D1-B25D-0B77C195EC44}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{3926B957-949F-4C78-95F3-E8F20968EBE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>